--- a/data/financial_statements/sofp/GPN.xlsx
+++ b/data/financial_statements/sofp/GPN.xlsx
@@ -14,9 +14,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,156 +607,156 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>1993840000</v>
+        <v>2126000000</v>
       </c>
       <c r="C2">
-        <v>1933309000</v>
+        <v>2099000000</v>
       </c>
       <c r="D2">
-        <v>2045277000</v>
+        <v>2180000000</v>
       </c>
       <c r="E2">
-        <v>1979308000</v>
+        <v>2123000000</v>
       </c>
       <c r="F2">
-        <v>2347732000</v>
+        <v>2469000000</v>
       </c>
       <c r="G2">
         <v>1799549000</v>
@@ -742,23 +865,23 @@
       </c>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>998231000</v>
+        <v>2739000000</v>
       </c>
       <c r="C3">
-        <v>989172000</v>
+        <v>2533000000</v>
       </c>
       <c r="D3">
-        <v>972961000</v>
+        <v>2423000000</v>
       </c>
       <c r="E3">
-        <v>946247000</v>
+        <v>2090000000</v>
       </c>
       <c r="F3">
-        <v>904142000</v>
+        <v>2817000000</v>
       </c>
       <c r="G3">
         <v>878431000</v>
@@ -867,8 +990,8 @@
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="AJ4">
         <v>5587000</v>
@@ -899,23 +1022,23 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>1834584000</v>
+        <v>588000000</v>
       </c>
       <c r="C5">
-        <v>1610122000</v>
+        <v>585000000</v>
       </c>
       <c r="D5">
-        <v>1450419000</v>
+        <v>549000000</v>
       </c>
       <c r="E5">
-        <v>1148318000</v>
+        <v>498000000</v>
       </c>
       <c r="F5">
-        <v>1912421000</v>
+        <v>507000000</v>
       </c>
       <c r="G5">
         <v>1548743000</v>
@@ -1024,23 +1147,23 @@
       </c>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>5453352000</v>
+        <v>5453000000</v>
       </c>
       <c r="C6">
-        <v>5216996000</v>
+        <v>5217000000</v>
       </c>
       <c r="D6">
-        <v>5152410000</v>
+        <v>5152000000</v>
       </c>
       <c r="E6">
-        <v>4710985000</v>
+        <v>4711000000</v>
       </c>
       <c r="F6">
-        <v>5792337000</v>
+        <v>5792000000</v>
       </c>
       <c r="G6">
         <v>4899877000</v>
@@ -1149,23 +1272,23 @@
       </c>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>1759235000</v>
+        <v>1759000000</v>
       </c>
       <c r="C7">
-        <v>1689292000</v>
+        <v>1689000000</v>
       </c>
       <c r="D7">
-        <v>1716257000</v>
+        <v>1716000000</v>
       </c>
       <c r="E7">
-        <v>1687586000</v>
+        <v>2182000000</v>
       </c>
       <c r="F7">
-        <v>1667287000</v>
+        <v>1667000000</v>
       </c>
       <c r="G7">
         <v>1642283000</v>
@@ -1274,23 +1397,23 @@
       </c>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>33328910000</v>
+        <v>33329000000</v>
       </c>
       <c r="C8">
-        <v>33769180000</v>
+        <v>33769000000</v>
       </c>
       <c r="D8">
-        <v>36086040000</v>
+        <v>36086000000</v>
       </c>
       <c r="E8">
-        <v>36446980000</v>
+        <v>36447000000</v>
       </c>
       <c r="F8">
-        <v>35874100000</v>
+        <v>35874000000</v>
       </c>
       <c r="G8">
         <v>36237110000</v>
@@ -1399,8 +1522,8 @@
       </c>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B9">
         <v>25657000</v>
@@ -1524,23 +1647,23 @@
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>3371590000</v>
+        <v>3372000000</v>
       </c>
       <c r="C10">
-        <v>3469792000</v>
+        <v>3470000000</v>
       </c>
       <c r="D10">
-        <v>2457797000</v>
+        <v>2458000000</v>
       </c>
       <c r="E10">
-        <v>2422042000</v>
+        <v>1928000000</v>
       </c>
       <c r="F10">
-        <v>2412270000</v>
+        <v>2412000000</v>
       </c>
       <c r="G10">
         <v>2362304000</v>
@@ -1649,8 +1772,8 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B11">
         <v>38485390000</v>
@@ -1774,23 +1897,23 @@
       </c>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>43938750000</v>
+        <v>43939000000</v>
       </c>
       <c r="C12">
-        <v>44175820000</v>
+        <v>44176000000</v>
       </c>
       <c r="D12">
-        <v>45435260000</v>
+        <v>45435000000</v>
       </c>
       <c r="E12">
-        <v>45279710000</v>
+        <v>45280000000</v>
       </c>
       <c r="F12">
-        <v>45754480000</v>
+        <v>45754000000</v>
       </c>
       <c r="G12">
         <v>45149670000</v>
@@ -1908,8 +2031,8 @@
       </c>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B13">
         <v>440950000</v>
@@ -2033,23 +2156,23 @@
       </c>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>2207551000</v>
+        <v>1991000000</v>
       </c>
       <c r="C14">
-        <v>2338867000</v>
+        <v>2127000000</v>
       </c>
       <c r="D14">
-        <v>2550112000</v>
+        <v>2340000000</v>
       </c>
       <c r="E14">
-        <v>2542256000</v>
+        <v>2286000000</v>
       </c>
       <c r="F14">
-        <v>2387972000</v>
+        <v>2169000000</v>
       </c>
       <c r="G14">
         <v>2184201000</v>
@@ -2158,23 +2281,23 @@
       </c>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>1157811000</v>
+        <v>1599000000</v>
       </c>
       <c r="C15">
-        <v>1279743000</v>
+        <v>1749000000</v>
       </c>
       <c r="D15">
-        <v>120226000</v>
+        <v>618000000</v>
       </c>
       <c r="E15">
-        <v>78505000</v>
+        <v>563000000</v>
       </c>
       <c r="F15">
-        <v>39148000</v>
+        <v>627000000</v>
       </c>
       <c r="G15">
         <v>52611000</v>
@@ -2277,8 +2400,8 @@
       </c>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AF16">
         <v>25286000</v>
@@ -2321,23 +2444,23 @@
       </c>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>1870373000</v>
+        <v>2087000000</v>
       </c>
       <c r="C17">
-        <v>1893655000</v>
+        <v>2105000000</v>
       </c>
       <c r="D17">
-        <v>1699491000</v>
+        <v>1909000000</v>
       </c>
       <c r="E17">
-        <v>1358051000</v>
+        <v>1615000000</v>
       </c>
       <c r="F17">
-        <v>2018840000</v>
+        <v>2237000000</v>
       </c>
       <c r="G17">
         <v>1655278000</v>
@@ -2446,23 +2569,23 @@
       </c>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>5676685000</v>
+        <v>5677000000</v>
       </c>
       <c r="C18">
-        <v>5981805000</v>
+        <v>5982000000</v>
       </c>
       <c r="D18">
-        <v>4867174000</v>
+        <v>4867000000</v>
       </c>
       <c r="E18">
-        <v>4463014000</v>
+        <v>4463000000</v>
       </c>
       <c r="F18">
-        <v>5034307000</v>
+        <v>5034000000</v>
       </c>
       <c r="G18">
         <v>4379628000</v>
@@ -2571,23 +2694,23 @@
       </c>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>12289830000</v>
+        <v>12290000000</v>
       </c>
       <c r="C19">
-        <v>10883720000</v>
+        <v>10884000000</v>
       </c>
       <c r="D19">
-        <v>11723800000</v>
+        <v>11724000000</v>
       </c>
       <c r="E19">
-        <v>11414810000</v>
+        <v>11966000000</v>
       </c>
       <c r="F19">
-        <v>10709790000</v>
+        <v>10710000000</v>
       </c>
       <c r="G19">
         <v>10216980000</v>
@@ -2696,8 +2819,8 @@
       </c>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B20">
         <v>45000000</v>
@@ -2725,23 +2848,23 @@
       </c>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>2439657000</v>
+        <v>2414000000</v>
       </c>
       <c r="C21">
-        <v>2626096000</v>
+        <v>2596000000</v>
       </c>
       <c r="D21">
-        <v>2725980000</v>
+        <v>2703000000</v>
       </c>
       <c r="E21">
-        <v>2793427000</v>
+        <v>2781000000</v>
       </c>
       <c r="F21">
-        <v>2831349000</v>
+        <v>2823000000</v>
       </c>
       <c r="G21">
         <v>2873676000</v>
@@ -2850,23 +2973,23 @@
       </c>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>659626000</v>
+        <v>615000000</v>
       </c>
       <c r="C22">
-        <v>707675000</v>
+        <v>663000000</v>
       </c>
       <c r="D22">
-        <v>723503000</v>
+        <v>678000000</v>
       </c>
       <c r="E22">
-        <v>739046000</v>
+        <v>144000000</v>
       </c>
       <c r="F22">
-        <v>824679000</v>
+        <v>778000000</v>
       </c>
       <c r="G22">
         <v>829250000</v>
@@ -2975,8 +3098,8 @@
       </c>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B23">
         <v>15389110000</v>
@@ -3100,23 +3223,23 @@
       </c>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>21065790000</v>
+        <v>21066000000</v>
       </c>
       <c r="C24">
-        <v>20199300000</v>
+        <v>20199000000</v>
       </c>
       <c r="D24">
-        <v>20040460000</v>
+        <v>20040000000</v>
       </c>
       <c r="E24">
-        <v>19410300000</v>
+        <v>19410000000</v>
       </c>
       <c r="F24">
-        <v>19400130000</v>
+        <v>19400000000</v>
       </c>
       <c r="G24">
         <v>18299530000</v>
@@ -3225,8 +3348,8 @@
       </c>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B25">
         <v>20717130000</v>
@@ -3350,23 +3473,23 @@
       </c>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B26">
-        <v>2547947000</v>
+        <v>2548000000</v>
       </c>
       <c r="C26">
-        <v>2326259000</v>
+        <v>2326000000</v>
       </c>
       <c r="D26">
-        <v>3068683000</v>
+        <v>3069000000</v>
       </c>
       <c r="E26">
-        <v>2982122000</v>
+        <v>2982000000</v>
       </c>
       <c r="F26">
-        <v>2845192000</v>
+        <v>2845000000</v>
       </c>
       <c r="G26">
         <v>2664707000</v>
@@ -3475,23 +3598,23 @@
       </c>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>22872960000</v>
+        <v>22661000000</v>
       </c>
       <c r="C27">
-        <v>23976530000</v>
+        <v>23756000000</v>
       </c>
       <c r="D27">
-        <v>25394800000</v>
+        <v>25160000000</v>
       </c>
       <c r="E27">
-        <v>25869420000</v>
+        <v>25628000000</v>
       </c>
       <c r="F27">
-        <v>26354350000</v>
+        <v>26147000000</v>
       </c>
       <c r="G27">
         <v>26850140000</v>
@@ -3600,23 +3723,23 @@
       </c>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B28">
-        <v>22872960000</v>
+        <v>22661000000</v>
       </c>
       <c r="C28">
-        <v>23976530000</v>
+        <v>23756000000</v>
       </c>
       <c r="D28">
-        <v>25394800000</v>
+        <v>25160000000</v>
       </c>
       <c r="E28">
-        <v>25869420000</v>
+        <v>25628000000</v>
       </c>
       <c r="F28">
-        <v>26354350000</v>
+        <v>26147000000</v>
       </c>
       <c r="G28">
         <v>26850140000</v>
@@ -3725,8 +3848,8 @@
       </c>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B29">
         <v>43938750000</v>
@@ -3850,8 +3973,8 @@
       </c>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B30">
         <v>270308000</v>
@@ -3975,8 +4098,8 @@
       </c>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B31">
         <v>-10455960000</v>
@@ -4100,23 +4223,23 @@
       </c>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B32">
-        <v>11453801000</v>
+        <v>11763000000</v>
       </c>
       <c r="C32">
-        <v>10230154000</v>
+        <v>10534000000</v>
       </c>
       <c r="D32">
-        <v>9798749000</v>
+        <v>10162000000</v>
       </c>
       <c r="E32">
-        <v>9514007000</v>
+        <v>10406000000</v>
       </c>
       <c r="F32">
-        <v>8401206000</v>
+        <v>8868000000</v>
       </c>
       <c r="G32">
         <v>8470042000</v>
@@ -4225,23 +4348,23 @@
       </c>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B33">
-        <v>13447641000</v>
+        <v>13889000000</v>
       </c>
       <c r="C33">
-        <v>12163463000</v>
+        <v>12633000000</v>
       </c>
       <c r="D33">
-        <v>11844026000</v>
+        <v>12342000000</v>
       </c>
       <c r="E33">
-        <v>11493315000</v>
+        <v>12529000000</v>
       </c>
       <c r="F33">
-        <v>10748938000</v>
+        <v>11337000000</v>
       </c>
       <c r="G33">
         <v>10269591000</v>
